--- a/medicine/Mort/Cimetière_de_l'Est_(Nice)/Cimetière_de_l'Est_(Nice).xlsx
+++ b/medicine/Mort/Cimetière_de_l'Est_(Nice)/Cimetière_de_l'Est_(Nice).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Est_(Nice)</t>
+          <t>Cimetière_de_l'Est_(Nice)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de l'Est est l'un des quatorze cimetières de la ville de Nice dans les Alpes-Maritimes. il se trouve dans les hauteurs de la ville au nord/nord-est.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Est_(Nice)</t>
+          <t>Cimetière_de_l'Est_(Nice)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce grand cimetière se trouve en pente sur la colline du Cimiez et organisé en espaliers. Il a été vandalisé en avril 2017 et son carré 21 en mai 2020[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce grand cimetière se trouve en pente sur la colline du Cimiez et organisé en espaliers. Il a été vandalisé en avril 2017 et son carré 21 en mai 2020. 
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Est_(Nice)</t>
+          <t>Cimetière_de_l'Est_(Nice)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>André Obrecht (1899-1985), avant-dernier bourreau en poste en France
-Caroline Otéro dite « la Belle Otéro » (née Agustina Otero iglesias, 1868-1965), grande cocotte de la Belle Époque morte dans l'indigence, d'abord enterrée au cimetière de Caucade et transférée ensuite ici[2]</t>
+Caroline Otéro dite « la Belle Otéro » (née Agustina Otero iglesias, 1868-1965), grande cocotte de la Belle Époque morte dans l'indigence, d'abord enterrée au cimetière de Caucade et transférée ensuite ici</t>
         </is>
       </c>
     </row>
